--- a/Tabaco.xlsx
+++ b/Tabaco.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="80">
   <si>
     <t>CALIBRACIÓN ENERGÍA</t>
   </si>
@@ -178,14 +178,86 @@
     <t>Efficiencia</t>
   </si>
   <si>
-    <t>MILL NUCLEO</t>
+    <t>MILL WELL</t>
+  </si>
+  <si>
+    <t>Plomo 210</t>
+  </si>
+  <si>
+    <t>Plomo 214</t>
+  </si>
+  <si>
+    <t>Arsénico 76</t>
+  </si>
+  <si>
+    <t>Bismuto 214</t>
+  </si>
+  <si>
+    <t>Zinc 63</t>
+  </si>
+  <si>
+    <t>Zinc 65</t>
+  </si>
+  <si>
+    <t>Polonio 210</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>DON JOSÉ WELL</t>
+  </si>
+  <si>
+    <t>NÚCLEO MILL</t>
+  </si>
+  <si>
+    <t>Lantano 139-140</t>
+  </si>
+  <si>
+    <t>Hierro 58-59</t>
+  </si>
+  <si>
+    <t>Calcio 46-47</t>
+  </si>
+  <si>
+    <t>Cadmio 106-107</t>
+  </si>
+  <si>
+    <t>Cadmio 114-115</t>
+  </si>
+  <si>
+    <t>Cerio 140-141</t>
+  </si>
+  <si>
+    <t>Samario 152-153</t>
+  </si>
+  <si>
+    <t>Antimonio 121-122</t>
+  </si>
+  <si>
+    <t>Picos sin identificar = 11</t>
+  </si>
+  <si>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>Bario 131?</t>
+  </si>
+  <si>
+    <t>Antimonio 124?</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Ba 131?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -201,8 +273,16 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,14 +331,82 @@
         <bgColor rgb="FFF9CB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD7E6B"/>
+        <bgColor rgb="FFDD7E6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -338,6 +486,75 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,6 +801,30 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -915,6 +1156,30 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
@@ -2009,6 +2274,30 @@
       <c r="X115" s="15"/>
       <c r="Y115" s="15"/>
       <c r="Z115" s="15"/>
+      <c r="AA115" s="15"/>
+      <c r="AB115" s="15"/>
+      <c r="AC115" s="15"/>
+      <c r="AD115" s="15"/>
+      <c r="AE115" s="15"/>
+      <c r="AF115" s="15"/>
+      <c r="AG115" s="15"/>
+      <c r="AH115" s="15"/>
+      <c r="AI115" s="15"/>
+      <c r="AJ115" s="15"/>
+      <c r="AK115" s="15"/>
+      <c r="AL115" s="15"/>
+      <c r="AM115" s="15"/>
+      <c r="AN115" s="15"/>
+      <c r="AO115" s="15"/>
+      <c r="AP115" s="15"/>
+      <c r="AQ115" s="15"/>
+      <c r="AR115" s="15"/>
+      <c r="AS115" s="15"/>
+      <c r="AT115" s="15"/>
+      <c r="AU115" s="15"/>
+      <c r="AV115" s="15"/>
+      <c r="AW115" s="15"/>
+      <c r="AX115" s="15"/>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
@@ -2694,6 +2983,30 @@
       <c r="X197" s="20"/>
       <c r="Y197" s="20"/>
       <c r="Z197" s="20"/>
+      <c r="AA197" s="20"/>
+      <c r="AB197" s="20"/>
+      <c r="AC197" s="20"/>
+      <c r="AD197" s="20"/>
+      <c r="AE197" s="20"/>
+      <c r="AF197" s="20"/>
+      <c r="AG197" s="20"/>
+      <c r="AH197" s="20"/>
+      <c r="AI197" s="20"/>
+      <c r="AJ197" s="20"/>
+      <c r="AK197" s="20"/>
+      <c r="AL197" s="20"/>
+      <c r="AM197" s="20"/>
+      <c r="AN197" s="20"/>
+      <c r="AO197" s="20"/>
+      <c r="AP197" s="20"/>
+      <c r="AQ197" s="20"/>
+      <c r="AR197" s="20"/>
+      <c r="AS197" s="20"/>
+      <c r="AT197" s="20"/>
+      <c r="AU197" s="20"/>
+      <c r="AV197" s="20"/>
+      <c r="AW197" s="20"/>
+      <c r="AX197" s="20"/>
     </row>
     <row r="198">
       <c r="A198" s="13"/>
@@ -4046,6 +4359,30 @@
       <c r="X261" s="12"/>
       <c r="Y261" s="12"/>
       <c r="Z261" s="12"/>
+      <c r="AA261" s="12"/>
+      <c r="AB261" s="12"/>
+      <c r="AC261" s="12"/>
+      <c r="AD261" s="12"/>
+      <c r="AE261" s="12"/>
+      <c r="AF261" s="12"/>
+      <c r="AG261" s="12"/>
+      <c r="AH261" s="12"/>
+      <c r="AI261" s="12"/>
+      <c r="AJ261" s="12"/>
+      <c r="AK261" s="12"/>
+      <c r="AL261" s="12"/>
+      <c r="AM261" s="12"/>
+      <c r="AN261" s="12"/>
+      <c r="AO261" s="12"/>
+      <c r="AP261" s="12"/>
+      <c r="AQ261" s="12"/>
+      <c r="AR261" s="12"/>
+      <c r="AS261" s="12"/>
+      <c r="AT261" s="12"/>
+      <c r="AU261" s="12"/>
+      <c r="AV261" s="12"/>
+      <c r="AW261" s="12"/>
+      <c r="AX261" s="12"/>
     </row>
     <row r="262">
       <c r="A262" s="13"/>
@@ -4540,8 +4877,3765 @@
       <c r="X289" s="15"/>
       <c r="Y289" s="15"/>
       <c r="Z289" s="15"/>
+      <c r="AA289" s="15"/>
+      <c r="AB289" s="15"/>
+      <c r="AC289" s="15"/>
+      <c r="AD289" s="15"/>
+      <c r="AE289" s="15"/>
+      <c r="AF289" s="15"/>
+      <c r="AG289" s="15"/>
+      <c r="AH289" s="15"/>
+      <c r="AI289" s="15"/>
+      <c r="AJ289" s="15"/>
+      <c r="AK289" s="15"/>
+      <c r="AL289" s="15"/>
+      <c r="AM289" s="15"/>
+      <c r="AN289" s="15"/>
+      <c r="AO289" s="15"/>
+      <c r="AP289" s="15"/>
+      <c r="AQ289" s="15"/>
+      <c r="AR289" s="15"/>
+      <c r="AS289" s="15"/>
+      <c r="AT289" s="15"/>
+      <c r="AU289" s="15"/>
+      <c r="AV289" s="15"/>
+      <c r="AW289" s="15"/>
+      <c r="AX289" s="15"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G291" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J291" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M291" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P291" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S291" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V291" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V292" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" s="5">
+        <v>87.47</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E293" s="5">
+        <v>668.35</v>
+      </c>
+      <c r="G293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H293" s="5">
+        <v>1061.4</v>
+      </c>
+      <c r="J293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K293" s="5">
+        <v>1157.82</v>
+      </c>
+      <c r="M293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N293" s="5">
+        <v>1272.66</v>
+      </c>
+      <c r="P293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q293" s="5">
+        <v>2120.95</v>
+      </c>
+      <c r="S293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T293" s="5">
+        <v>2533.22</v>
+      </c>
+      <c r="V293" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W293" s="5">
+        <v>1527.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" s="5">
+        <v>46.539</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="5">
+        <v>351.932</v>
+      </c>
+      <c r="G294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H294" s="5">
+        <v>559.086</v>
+      </c>
+      <c r="J294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K294" s="5">
+        <v>609.321</v>
+      </c>
+      <c r="M294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N294" s="5">
+        <v>669.64</v>
+      </c>
+      <c r="P294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q294" s="5">
+        <v>1115.539</v>
+      </c>
+      <c r="S294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T294" s="5">
+        <v>1332.492</v>
+      </c>
+      <c r="V294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W294" s="5">
+        <v>803.06</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B295" s="5">
+        <v>311.0</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E295" s="5">
+        <v>507.0</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H295" s="5">
+        <v>479.0</v>
+      </c>
+      <c r="J295" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K295" s="5">
+        <v>304.0</v>
+      </c>
+      <c r="M295" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N295" s="5">
+        <v>393.0</v>
+      </c>
+      <c r="P295" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q295" s="5">
+        <v>213.0</v>
+      </c>
+      <c r="S295" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T295" s="5">
+        <v>124.0</v>
+      </c>
+      <c r="V295" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W295" s="5">
+        <v>298.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B296" s="5">
+        <v>186.0</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E296" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H296" s="5">
+        <v>87.0</v>
+      </c>
+      <c r="J296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K296" s="5">
+        <v>91.0</v>
+      </c>
+      <c r="M296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N296" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="P296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q296" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="S296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T296" s="5">
+        <v>44.0</v>
+      </c>
+      <c r="V296" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W296" s="5">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B297" s="5">
+        <v>0.0425</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E297" s="5">
+        <v>0.3572</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H297" s="5">
+        <v>0.407</v>
+      </c>
+      <c r="J297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K297" s="5">
+        <v>0.4544</v>
+      </c>
+      <c r="M297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N297" s="5">
+        <v>0.083</v>
+      </c>
+      <c r="P297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q297" s="5">
+        <v>0.5004</v>
+      </c>
+      <c r="S297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T297" s="5">
+        <v>0.999826</v>
+      </c>
+      <c r="V297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W297" s="5">
+        <v>1.03E-5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="D298" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J298" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M298" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S298" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="D299" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E299" s="5">
+        <v>561.47</v>
+      </c>
+      <c r="J299" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K299" s="5">
+        <v>3354.87</v>
+      </c>
+      <c r="M299" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N299" s="5">
+        <v>1829.0</v>
+      </c>
+      <c r="S299" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T299" s="5">
+        <v>2233.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="5">
+        <v>65.57</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="5">
+        <v>295.224</v>
+      </c>
+      <c r="J300" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K300" s="5">
+        <v>1764.491</v>
+      </c>
+      <c r="M300" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N300" s="5">
+        <v>962.07</v>
+      </c>
+      <c r="S300" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T300" s="5">
+        <v>1173.228</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="5">
+        <v>76.57</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E301" s="5">
+        <v>288.0</v>
+      </c>
+      <c r="J301" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K301" s="5">
+        <v>189.0</v>
+      </c>
+      <c r="M301" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N301" s="5">
+        <v>537.0</v>
+      </c>
+      <c r="S301" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T301" s="5">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="5">
+        <v>109.65</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E302" s="5">
+        <v>138.0</v>
+      </c>
+      <c r="J302" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K302" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="M302" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N302" s="5">
+        <v>64.0</v>
+      </c>
+      <c r="S302" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T302" s="5">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="5">
+        <v>139.42</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E303" s="5">
+        <v>0.1847</v>
+      </c>
+      <c r="J303" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K303" s="5">
+        <v>0.1529</v>
+      </c>
+      <c r="M303" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N303" s="5">
+        <v>0.065</v>
+      </c>
+      <c r="S303" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T303" s="5">
+        <v>0.9985</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="5">
+        <v>197.57</v>
+      </c>
+      <c r="J304" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M304" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="5">
+        <v>238.24</v>
+      </c>
+      <c r="J305" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K305" s="5">
+        <v>2129.8</v>
+      </c>
+      <c r="M305" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N305" s="5">
+        <v>2685.21</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="5">
+        <v>568.63</v>
+      </c>
+      <c r="J306" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K306" s="5">
+        <v>1120.294</v>
+      </c>
+      <c r="M306" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N306" s="5">
+        <v>1412.07</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="5">
+        <v>598.84</v>
+      </c>
+      <c r="J307" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K307" s="5">
+        <v>103.0</v>
+      </c>
+      <c r="M307" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N307" s="5">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="5">
+        <v>695.38</v>
+      </c>
+      <c r="J308" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K308" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="M308" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N308" s="5">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="5">
+        <v>770.85</v>
+      </c>
+      <c r="J309" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K309" s="5">
+        <v>0.149</v>
+      </c>
+      <c r="M309" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N309" s="5">
+        <v>0.0074</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="J310" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="5">
+        <v>1327.11</v>
+      </c>
+      <c r="J311" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K311" s="5">
+        <v>2343.08</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="5">
+        <v>1592.92</v>
+      </c>
+      <c r="J312" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K312" s="5">
+        <v>1238.122</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="5">
+        <v>2103.95</v>
+      </c>
+      <c r="J313" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K313" s="5">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="J314" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K314" s="5">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="J315" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K315" s="5">
+        <v>0.0583</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B317" s="33"/>
+      <c r="C317" s="33"/>
+      <c r="D317" s="33"/>
+      <c r="E317" s="33"/>
+      <c r="F317" s="33"/>
+      <c r="G317" s="33"/>
+      <c r="H317" s="33"/>
+      <c r="I317" s="33"/>
+      <c r="J317" s="33"/>
+      <c r="K317" s="33"/>
+      <c r="L317" s="33"/>
+      <c r="M317" s="33"/>
+      <c r="N317" s="33"/>
+      <c r="O317" s="33"/>
+      <c r="P317" s="33"/>
+      <c r="Q317" s="33"/>
+      <c r="R317" s="33"/>
+      <c r="S317" s="33"/>
+      <c r="T317" s="33"/>
+      <c r="U317" s="33"/>
+      <c r="V317" s="33"/>
+      <c r="W317" s="33"/>
+      <c r="X317" s="33"/>
+      <c r="Y317" s="33"/>
+      <c r="Z317" s="33"/>
+      <c r="AA317" s="33"/>
+      <c r="AB317" s="33"/>
+      <c r="AC317" s="33"/>
+      <c r="AD317" s="33"/>
+      <c r="AE317" s="33"/>
+      <c r="AF317" s="33"/>
+      <c r="AG317" s="33"/>
+      <c r="AH317" s="33"/>
+      <c r="AI317" s="33"/>
+      <c r="AJ317" s="33"/>
+      <c r="AK317" s="33"/>
+      <c r="AL317" s="33"/>
+      <c r="AM317" s="33"/>
+      <c r="AN317" s="33"/>
+      <c r="AO317" s="33"/>
+      <c r="AP317" s="33"/>
+      <c r="AQ317" s="33"/>
+      <c r="AR317" s="33"/>
+      <c r="AS317" s="33"/>
+      <c r="AT317" s="33"/>
+      <c r="AU317" s="33"/>
+      <c r="AV317" s="33"/>
+      <c r="AW317" s="33"/>
+      <c r="AX317" s="33"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J319" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M319" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P319" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S319" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T319" s="13"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M320" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P320" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S320" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T320" s="13"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="5">
+        <v>87.69</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E321" s="5">
+        <v>668.35</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H321" s="5">
+        <v>1061.4</v>
+      </c>
+      <c r="J321" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K321" s="5">
+        <v>1157.82</v>
+      </c>
+      <c r="M321" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N321" s="5">
+        <v>1272.66</v>
+      </c>
+      <c r="P321" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q321" s="5">
+        <v>2120.95</v>
+      </c>
+      <c r="S321" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T321" s="22">
+        <v>1527.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B322" s="5">
+        <v>46.539</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" s="5">
+        <v>351.932</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H322" s="5">
+        <v>559.086</v>
+      </c>
+      <c r="J322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K322" s="5">
+        <v>609.321</v>
+      </c>
+      <c r="M322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N322" s="5">
+        <v>669.64</v>
+      </c>
+      <c r="P322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q322" s="5">
+        <v>1115.539</v>
+      </c>
+      <c r="S322" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="T322" s="22">
+        <v>803.06</v>
+      </c>
+      <c r="V322" s="35"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B323" s="5">
+        <v>726.0</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E323" s="5">
+        <v>557.0</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H323" s="5">
+        <v>536.0</v>
+      </c>
+      <c r="J323" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K323" s="5">
+        <v>398.0</v>
+      </c>
+      <c r="M323" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N323" s="5">
+        <v>449.0</v>
+      </c>
+      <c r="P323" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q323" s="5">
+        <v>214.0</v>
+      </c>
+      <c r="S323" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T323" s="27">
+        <v>199.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B324" s="5">
+        <v>187.0</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E324" s="5">
+        <v>126.0</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H324" s="5">
+        <v>89.0</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K324" s="5">
+        <v>92.0</v>
+      </c>
+      <c r="M324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N324" s="5">
+        <v>81.0</v>
+      </c>
+      <c r="P324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q324" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="S324" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T324" s="22">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B325" s="5">
+        <v>0.0425</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E325" s="5">
+        <v>0.3572</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H325" s="5">
+        <v>0.407</v>
+      </c>
+      <c r="J325" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K325" s="5">
+        <v>0.4544</v>
+      </c>
+      <c r="M325" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N325" s="5">
+        <v>0.083</v>
+      </c>
+      <c r="P325" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q325" s="5">
+        <v>0.5004</v>
+      </c>
+      <c r="S325" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T325" s="22">
+        <v>1.03E-5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="D326" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J326" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M326" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="D327" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E327" s="5">
+        <v>561.47</v>
+      </c>
+      <c r="J327" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K327" s="5">
+        <v>3354.87</v>
+      </c>
+      <c r="M327" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N327" s="5">
+        <v>1829.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="5">
+        <v>65.57</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E328" s="5">
+        <v>295.224</v>
+      </c>
+      <c r="J328" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K328" s="5">
+        <v>1764.491</v>
+      </c>
+      <c r="M328" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N328" s="5">
+        <v>962.07</v>
+      </c>
+      <c r="S328" s="35"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="5">
+        <v>76.57</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E329" s="5">
+        <v>166.0</v>
+      </c>
+      <c r="J329" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K329" s="5">
+        <v>213.0</v>
+      </c>
+      <c r="M329" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N329" s="5">
+        <v>434.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="5">
+        <v>109.65</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E330" s="5">
+        <v>142.0</v>
+      </c>
+      <c r="J330" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K330" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="M330" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N330" s="5">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="5">
+        <v>139.42</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E331" s="5">
+        <v>0.1847</v>
+      </c>
+      <c r="J331" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K331" s="5">
+        <v>0.1529</v>
+      </c>
+      <c r="M331" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N331" s="5">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="5">
+        <v>197.57</v>
+      </c>
+      <c r="J332" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="5">
+        <v>238.24</v>
+      </c>
+      <c r="J333" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K333" s="5">
+        <v>2129.8</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="5">
+        <v>568.63</v>
+      </c>
+      <c r="J334" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K334" s="5">
+        <v>1120.294</v>
+      </c>
+      <c r="M334" s="35"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="5">
+        <v>598.84</v>
+      </c>
+      <c r="J335" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K335" s="5">
+        <v>148.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="5">
+        <v>695.38</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K336" s="5">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="5">
+        <v>770.85</v>
+      </c>
+      <c r="J337" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K337" s="5">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="5">
+        <v>1327.11</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="5">
+        <v>1592.92</v>
+      </c>
+      <c r="J340" s="35"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="5">
+        <v>2103.95</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B343" s="37"/>
+      <c r="C343" s="37"/>
+      <c r="D343" s="37"/>
+      <c r="E343" s="37"/>
+      <c r="F343" s="37"/>
+      <c r="G343" s="37"/>
+      <c r="H343" s="37"/>
+      <c r="I343" s="37"/>
+      <c r="J343" s="37"/>
+      <c r="K343" s="37"/>
+      <c r="L343" s="37"/>
+      <c r="M343" s="37"/>
+      <c r="N343" s="37"/>
+      <c r="O343" s="37"/>
+      <c r="P343" s="37"/>
+      <c r="Q343" s="37"/>
+      <c r="R343" s="37"/>
+      <c r="S343" s="37"/>
+      <c r="T343" s="37"/>
+      <c r="U343" s="37"/>
+      <c r="V343" s="37"/>
+      <c r="W343" s="37"/>
+      <c r="X343" s="37"/>
+      <c r="Y343" s="37"/>
+      <c r="Z343" s="37"/>
+      <c r="AA343" s="37"/>
+      <c r="AB343" s="37"/>
+      <c r="AC343" s="37"/>
+      <c r="AD343" s="37"/>
+      <c r="AE343" s="37"/>
+      <c r="AF343" s="37"/>
+      <c r="AG343" s="37"/>
+      <c r="AH343" s="37"/>
+      <c r="AI343" s="37"/>
+      <c r="AJ343" s="37"/>
+      <c r="AK343" s="37"/>
+      <c r="AL343" s="37"/>
+      <c r="AM343" s="37"/>
+      <c r="AN343" s="37"/>
+      <c r="AO343" s="37"/>
+      <c r="AP343" s="37"/>
+      <c r="AQ343" s="37"/>
+      <c r="AR343" s="37"/>
+      <c r="AS343" s="37"/>
+      <c r="AT343" s="37"/>
+      <c r="AU343" s="37"/>
+      <c r="AV343" s="37"/>
+      <c r="AW343" s="37"/>
+      <c r="AX343" s="37"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B345" s="39"/>
+      <c r="D345" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E345" s="39"/>
+      <c r="G345" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="J345" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K345" s="39"/>
+      <c r="M345" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N345" s="39"/>
+      <c r="P345" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q345" s="39"/>
+      <c r="S345" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="T345" s="39"/>
+      <c r="V345" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="W345" s="39"/>
+      <c r="Y345" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z345" s="39"/>
+      <c r="AB345" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC345" s="39"/>
+      <c r="AE345" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF345" s="39"/>
+      <c r="AH345" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI345" s="39"/>
+      <c r="AK345" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL345" s="39"/>
+      <c r="AN345" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO345" s="39"/>
+      <c r="AQ345" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR345" s="41"/>
+      <c r="AS345" s="41"/>
+      <c r="AT345" s="41"/>
+      <c r="AU345" s="41"/>
+      <c r="AV345" s="39"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" s="43"/>
+      <c r="D346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" s="43"/>
+      <c r="G346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H346" s="43"/>
+      <c r="J346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K346" s="43"/>
+      <c r="M346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="N346" s="44"/>
+      <c r="P346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q346" s="43"/>
+      <c r="S346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="T346" s="43"/>
+      <c r="V346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="W346" s="45"/>
+      <c r="Y346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z346" s="43"/>
+      <c r="AB346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC346" s="43"/>
+      <c r="AE346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF346" s="43"/>
+      <c r="AH346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI346" s="43"/>
+      <c r="AK346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL346" s="43"/>
+      <c r="AN346" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO346" s="43"/>
+      <c r="AQ346" s="46"/>
+      <c r="AR346" s="46"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B347" s="42">
+        <v>2787.82</v>
+      </c>
+      <c r="D347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E347" s="42">
+        <v>3108.83</v>
+      </c>
+      <c r="G347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H347" s="42">
+        <v>1569.84</v>
+      </c>
+      <c r="J347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="K347" s="42">
+        <v>2277.32</v>
+      </c>
+      <c r="M347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="N347" s="47">
+        <v>2712.4</v>
+      </c>
+      <c r="P347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q347" s="42">
+        <v>3255.83</v>
+      </c>
+      <c r="S347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="T347" s="42">
+        <v>2233.72</v>
+      </c>
+      <c r="V347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="W347" s="48">
+        <v>2187.49</v>
+      </c>
+      <c r="Y347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z347" s="42">
+        <v>2640.57</v>
+      </c>
+      <c r="AB347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC347" s="42">
+        <v>162.73</v>
+      </c>
+      <c r="AE347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF347" s="42">
+        <v>665.16</v>
+      </c>
+      <c r="AH347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI347" s="42">
+        <v>271.66</v>
+      </c>
+      <c r="AK347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL347" s="42">
+        <v>184.82</v>
+      </c>
+      <c r="AN347" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO347" s="42">
+        <v>1133.75</v>
+      </c>
+      <c r="AQ347" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR347" s="43"/>
+      <c r="AU347" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV347" s="43"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" s="49">
+        <v>1368.85</v>
+      </c>
+      <c r="D348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" s="49">
+        <v>1524.71</v>
+      </c>
+      <c r="G348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H348" s="49">
+        <v>776.42</v>
+      </c>
+      <c r="J348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K348" s="49">
+        <v>1120.545</v>
+      </c>
+      <c r="M348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N348" s="50">
+        <v>1332.492</v>
+      </c>
+      <c r="P348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q348" s="49">
+        <v>1596.21</v>
+      </c>
+      <c r="S348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T348" s="49">
+        <v>1099.245</v>
+      </c>
+      <c r="V348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="W348" s="51">
+        <v>1077.0</v>
+      </c>
+      <c r="Y348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z348" s="49">
+        <v>1297.08</v>
+      </c>
+      <c r="AB348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC348" s="49">
+        <v>93.124</v>
+      </c>
+      <c r="AE348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF348" s="49">
+        <v>336.24</v>
+      </c>
+      <c r="AH348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI348" s="49">
+        <v>145.4433</v>
+      </c>
+      <c r="AK348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL348" s="49">
+        <v>103.18012</v>
+      </c>
+      <c r="AN348" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO348" s="49">
+        <v>564.24</v>
+      </c>
+      <c r="AQ348" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR348" s="42">
+        <v>226.79</v>
+      </c>
+      <c r="AU348" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV348" s="42">
+        <v>3450.73</v>
+      </c>
+      <c r="AW348" s="35"/>
+      <c r="AX348" s="35"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" s="43"/>
+      <c r="D349" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E349" s="43"/>
+      <c r="G349" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H349" s="43"/>
+      <c r="J349" s="43"/>
+      <c r="K349" s="43"/>
+      <c r="M349" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="N349" s="44"/>
+      <c r="P349" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q349" s="42">
+        <v>83504.0</v>
+      </c>
+      <c r="S349" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="T349" s="42">
+        <v>9782.0</v>
+      </c>
+      <c r="V349" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="W349" s="45"/>
+      <c r="Y349" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z349" s="42">
+        <v>31486.0</v>
+      </c>
+      <c r="AB349" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC349" s="42">
+        <v>140232.0</v>
+      </c>
+      <c r="AE349" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF349" s="42">
+        <v>52952.0</v>
+      </c>
+      <c r="AH349" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI349" s="42">
+        <v>10653.0</v>
+      </c>
+      <c r="AK349" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL349" s="42">
+        <v>418113.0</v>
+      </c>
+      <c r="AN349" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO349" s="42">
+        <v>233237.0</v>
+      </c>
+      <c r="AQ349" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR349" s="49">
+        <v>123.82</v>
+      </c>
+      <c r="AS349" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT349" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU349" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV349" s="49">
+        <v>1690.47</v>
+      </c>
+      <c r="AW349" s="53"/>
+      <c r="AX349" s="53"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B350" s="43"/>
+      <c r="D350" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E350" s="43"/>
+      <c r="G350" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H350" s="43"/>
+      <c r="J350" s="43"/>
+      <c r="K350" s="43"/>
+      <c r="M350" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N350" s="47">
+        <v>10266.0</v>
+      </c>
+      <c r="P350" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q350" s="42">
+        <v>481.0</v>
+      </c>
+      <c r="S350" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="T350" s="42">
+        <v>434.0</v>
+      </c>
+      <c r="V350" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="W350" s="48">
+        <v>1352.0</v>
+      </c>
+      <c r="Y350" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z350" s="42">
+        <v>443.0</v>
+      </c>
+      <c r="AB350" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC350" s="42">
+        <v>1546.0</v>
+      </c>
+      <c r="AE350" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF350" s="42">
+        <v>1062.0</v>
+      </c>
+      <c r="AH350" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI350" s="42">
+        <v>4311.0</v>
+      </c>
+      <c r="AK350" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL350" s="42">
+        <v>4516.0</v>
+      </c>
+      <c r="AN350" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO350" s="42">
+        <v>1172.0</v>
+      </c>
+      <c r="AQ350" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR350" s="42">
+        <v>46127.0</v>
+      </c>
+      <c r="AU350" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV350" s="42">
+        <v>6962.0</v>
+      </c>
+      <c r="AW350" s="53"/>
+      <c r="AX350" s="53"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B351" s="54"/>
+      <c r="D351" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E351" s="54"/>
+      <c r="G351" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H351" s="54"/>
+      <c r="J351" s="52"/>
+      <c r="K351" s="43"/>
+      <c r="M351" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N351" s="47">
+        <v>690.0</v>
+      </c>
+      <c r="P351" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q351" s="42">
+        <v>0.954</v>
+      </c>
+      <c r="S351" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T351" s="43"/>
+      <c r="V351" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="W351" s="48">
+        <v>231.0</v>
+      </c>
+      <c r="Y351" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z351" s="42">
+        <v>0.67</v>
+      </c>
+      <c r="AB351" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC351" s="42">
+        <v>0.047</v>
+      </c>
+      <c r="AE351" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF351" s="42">
+        <v>0.4602</v>
+      </c>
+      <c r="AH351" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI351" s="42">
+        <v>0.483</v>
+      </c>
+      <c r="AK351" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL351" s="42">
+        <v>0.2914</v>
+      </c>
+      <c r="AN351" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO351" s="42">
+        <v>0.7068</v>
+      </c>
+      <c r="AQ351" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR351" s="42">
+        <v>4419.0</v>
+      </c>
+      <c r="AU351" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV351" s="42">
+        <v>363.0</v>
+      </c>
+      <c r="AW351" s="53"/>
+      <c r="AX351" s="53"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B352" s="42">
+        <v>1285576.0</v>
+      </c>
+      <c r="D352" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E352" s="42">
+        <v>616157.0</v>
+      </c>
+      <c r="G352" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H352" s="42">
+        <v>5507086.0</v>
+      </c>
+      <c r="J352" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K352" s="42">
+        <v>75944.0</v>
+      </c>
+      <c r="M352" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="N352" s="47">
+        <v>0.999826</v>
+      </c>
+      <c r="P352" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q352" s="43"/>
+      <c r="S352" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="T352" s="43"/>
+      <c r="V352" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="W352" s="48">
+        <v>0.0864</v>
+      </c>
+      <c r="Y352" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z352" s="43"/>
+      <c r="AB352" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC352" s="43"/>
+      <c r="AE352" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF352" s="43"/>
+      <c r="AH352" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI352" s="39"/>
+      <c r="AK352" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL352" s="39"/>
+      <c r="AN352" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO352" s="39"/>
+      <c r="AW352" s="53"/>
+      <c r="AX352" s="53"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B353" s="42">
+        <v>1319.0</v>
+      </c>
+      <c r="D353" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E353" s="42">
+        <v>925.0</v>
+      </c>
+      <c r="G353" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H353" s="42">
+        <v>2760.0</v>
+      </c>
+      <c r="J353" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K353" s="42">
+        <v>1158.0</v>
+      </c>
+      <c r="M353" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="N353" s="44"/>
+      <c r="P353" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q353" s="42">
+        <v>974.59</v>
+      </c>
+      <c r="S353" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="T353" s="42">
+        <v>2629.5</v>
+      </c>
+      <c r="V353" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="W353" s="39"/>
+      <c r="Y353" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z353" s="42">
+        <v>1633.96</v>
+      </c>
+      <c r="AB353" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC353" s="42">
+        <v>1609.65</v>
+      </c>
+      <c r="AE353" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF353" s="42">
+        <v>1058.38</v>
+      </c>
+      <c r="AH353" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI353" s="42">
+        <v>0.88449</v>
+      </c>
+      <c r="AK353" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL353" s="42">
+        <v>0.2674</v>
+      </c>
+      <c r="AN353" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO353" s="42">
+        <v>0.5721</v>
+      </c>
+      <c r="AQ353" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR353" s="43"/>
+      <c r="AU353" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV353" s="43"/>
+      <c r="AW353" s="53"/>
+      <c r="AX353" s="53"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B354" s="42">
+        <v>0.99994</v>
+      </c>
+      <c r="D354" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E354" s="42">
+        <v>0.1808</v>
+      </c>
+      <c r="G354" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H354" s="42">
+        <v>0.836</v>
+      </c>
+      <c r="J354" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K354" s="42">
+        <v>0.99987</v>
+      </c>
+      <c r="M354" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="N354" s="47">
+        <v>2385.89</v>
+      </c>
+      <c r="P354" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q354" s="49">
+        <v>487.2</v>
+      </c>
+      <c r="S354" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T354" s="49">
+        <v>1291.59</v>
+      </c>
+      <c r="V354" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="W354" s="47">
+        <v>0.7217</v>
+      </c>
+      <c r="Y354" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z354" s="49">
+        <v>807.86</v>
+      </c>
+      <c r="AB354" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC354" s="49">
+        <v>796.46</v>
+      </c>
+      <c r="AE354" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF354" s="49">
+        <v>527.901</v>
+      </c>
+      <c r="AH354" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI354" s="42">
+        <v>139.905448</v>
+      </c>
+      <c r="AK354" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL354" s="42">
+        <v>151.919739</v>
+      </c>
+      <c r="AN354" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO354" s="42">
+        <v>120.903811</v>
+      </c>
+      <c r="AQ354" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR354" s="42">
+        <v>300.56</v>
+      </c>
+      <c r="AU354" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV354" s="42">
+        <v>3534.85</v>
+      </c>
+      <c r="AW354" s="35"/>
+      <c r="AX354" s="35"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B355" s="39"/>
+      <c r="D355" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E355" s="43"/>
+      <c r="G355" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H355" s="43"/>
+      <c r="J355" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K355" s="43"/>
+      <c r="M355" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N355" s="50">
+        <v>1173.228</v>
+      </c>
+      <c r="P355" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q355" s="42">
+        <v>108025.0</v>
+      </c>
+      <c r="S355" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="T355" s="42">
+        <v>1707.0</v>
+      </c>
+      <c r="V355" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="W355" s="42">
+        <v>84.91179</v>
+      </c>
+      <c r="Y355" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z355" s="42">
+        <v>9250.0</v>
+      </c>
+      <c r="AB355" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC355" s="42">
+        <v>3915.0</v>
+      </c>
+      <c r="AE355" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF355" s="42">
+        <v>25259.0</v>
+      </c>
+      <c r="AH355" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI355" s="57">
+        <f>0.55*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AK355" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL355" s="57">
+        <f>2978*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AN355" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO355" s="57">
+        <f>205*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AQ355" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR355" s="49">
+        <v>159.66</v>
+      </c>
+      <c r="AU355" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV355" s="49">
+        <v>1731.34</v>
+      </c>
+      <c r="AW355" s="53"/>
+      <c r="AX355" s="53"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B356" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="D356" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E356" s="42">
+        <v>615.48</v>
+      </c>
+      <c r="G356" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H356" s="42">
+        <v>1112.88</v>
+      </c>
+      <c r="J356" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="K356" s="42">
+        <v>1801.8</v>
+      </c>
+      <c r="M356" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="N356" s="44"/>
+      <c r="P356" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q356" s="42">
+        <v>2735.0</v>
+      </c>
+      <c r="S356" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="T356" s="42">
+        <v>175.0</v>
+      </c>
+      <c r="V356" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="W356" s="57">
+        <f>6.83*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="Y356" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z356" s="42">
+        <v>1382.0</v>
+      </c>
+      <c r="AB356" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC356" s="42">
+        <v>1382.0</v>
+      </c>
+      <c r="AE356" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF356" s="42">
+        <v>926.0</v>
+      </c>
+      <c r="AH356" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI356" s="57">
+        <f>0.51*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AK356" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL356" s="57">
+        <f>206*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AN356" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO356" s="57">
+        <f>5.77*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AQ356" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR356" s="42">
+        <v>285009.0</v>
+      </c>
+      <c r="AU356" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV356" s="42">
+        <v>95152.0</v>
+      </c>
+      <c r="AW356" s="53"/>
+      <c r="AX356" s="53"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B357" s="42">
+        <v>22.989769</v>
+      </c>
+      <c r="D357" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" s="49">
+        <v>312.76</v>
+      </c>
+      <c r="G357" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H357" s="49">
+        <v>554.3</v>
+      </c>
+      <c r="J357" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K357" s="49">
+        <v>889.277</v>
+      </c>
+      <c r="M357" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N357" s="47">
+        <v>9484.0</v>
+      </c>
+      <c r="P357" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q357" s="42">
+        <v>0.455</v>
+      </c>
+      <c r="S357" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T357" s="42">
+        <v>0.432</v>
+      </c>
+      <c r="V357" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="W357" s="57">
+        <f>0.494*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="Y357" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z357" s="42">
+        <v>0.059</v>
+      </c>
+      <c r="AB357" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC357" s="42">
+        <v>6.49E-4</v>
+      </c>
+      <c r="AE357" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF357" s="42">
+        <v>0.2745</v>
+      </c>
+      <c r="AH357" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI357" s="57">
+        <f>2.4682*10^-7</f>
+        <v>0.00000024682</v>
+      </c>
+      <c r="AK357" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL357" s="57">
+        <f>4.16*10^-6</f>
+        <v>0.00000416</v>
+      </c>
+      <c r="AN357" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO357" s="57">
+        <f>2.94535*10^-6</f>
+        <v>0.00000294535</v>
+      </c>
+      <c r="AQ357" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR357" s="42">
+        <v>4212.0</v>
+      </c>
+      <c r="AU357" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV357" s="42">
+        <v>487.0</v>
+      </c>
+      <c r="AW357" s="53"/>
+      <c r="AX357" s="53"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B358" s="58">
+        <f>0.312*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="D358" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E358" s="43"/>
+      <c r="G358" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H358" s="43"/>
+      <c r="J358" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K358" s="43"/>
+      <c r="M358" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N358" s="47">
+        <v>945.0</v>
+      </c>
+      <c r="P358" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q358" s="43"/>
+      <c r="S358" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="T358" s="39"/>
+      <c r="V358" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="W358" s="57">
+        <f>4.1695*10^-9</f>
+        <v>0.0000000041695</v>
+      </c>
+      <c r="Y358" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z358" s="39"/>
+      <c r="AB358" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC358" s="39"/>
+      <c r="AE358" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF358" s="39"/>
+      <c r="AW358" s="53"/>
+      <c r="AX358" s="53"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B359" s="58">
+        <f>0.525*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="D359" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E359" s="43"/>
+      <c r="G359" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H359" s="43"/>
+      <c r="J359" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K359" s="43"/>
+      <c r="M359" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="N359" s="47">
+        <v>0.9985</v>
+      </c>
+      <c r="P359" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q359" s="42">
+        <v>1650.65</v>
+      </c>
+      <c r="S359" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="T359" s="42">
+        <v>0.00282</v>
+      </c>
+      <c r="Y359" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z359" s="42">
+        <v>4.0E-5</v>
+      </c>
+      <c r="AB359" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC359" s="42">
+        <v>0.01245</v>
+      </c>
+      <c r="AE359" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF359" s="42">
+        <v>0.28754</v>
+      </c>
+      <c r="AQ359" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR359" s="43"/>
+      <c r="AU359" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV359" s="43"/>
+      <c r="AW359" s="35"/>
+      <c r="AX359" s="35"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B360" s="42">
+        <f>1.28738*10^-5</f>
+        <v>0.0000128738</v>
+      </c>
+      <c r="D360" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E360" s="54"/>
+      <c r="G360" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H360" s="54"/>
+      <c r="J360" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="K360" s="43"/>
+      <c r="M360" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="N360" s="39"/>
+      <c r="P360" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q360" s="49">
+        <v>815.772</v>
+      </c>
+      <c r="S360" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="T360" s="42">
+        <v>57.933274</v>
+      </c>
+      <c r="Y360" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z360" s="42">
+        <v>45.953688</v>
+      </c>
+      <c r="AB360" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC360" s="42">
+        <v>105.90646</v>
+      </c>
+      <c r="AE360" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF360" s="42">
+        <v>113.903365</v>
+      </c>
+      <c r="AQ360" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR360" s="42">
+        <v>535.29</v>
+      </c>
+      <c r="AU360" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV360" s="42">
+        <v>3822.31</v>
+      </c>
+      <c r="AW360" s="35"/>
+      <c r="AX360" s="35"/>
+    </row>
+    <row r="361">
+      <c r="D361" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E361" s="42">
+        <v>60064.0</v>
+      </c>
+      <c r="G361" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H361" s="42">
+        <v>6300067.0</v>
+      </c>
+      <c r="J361" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K361" s="42">
+        <v>64374.0</v>
+      </c>
+      <c r="M361" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="N361" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="P361" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q361" s="42">
+        <v>35073.0</v>
+      </c>
+      <c r="S361" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T361" s="57">
+        <f>1.5*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="Y361" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z361" s="57">
+        <f>0.96*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AB361" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC361" s="57">
+        <f>6.1*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AE361" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF361" s="57">
+        <f>12.2*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AQ361" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR361" s="49">
+        <v>273.73</v>
+      </c>
+      <c r="AU361" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV361" s="49">
+        <v>1871.03</v>
+      </c>
+      <c r="AW361" s="35"/>
+      <c r="AX361" s="35"/>
+    </row>
+    <row r="362">
+      <c r="D362" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E362" s="42">
+        <v>3604.0</v>
+      </c>
+      <c r="G362" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H362" s="42">
+        <v>3377.0</v>
+      </c>
+      <c r="J362" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K362" s="42">
+        <v>1224.0</v>
+      </c>
+      <c r="M362" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N362" s="42">
+        <v>58.933194</v>
+      </c>
+      <c r="P362" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q362" s="42">
+        <v>1391.0</v>
+      </c>
+      <c r="S362" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="T362" s="57">
+        <f>1.32*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="Y362" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z362" s="57">
+        <f>0.74*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AB362" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC362" s="57">
+        <f>1*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AE362" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF362" s="57">
+        <f>0.33*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AO362" s="59"/>
+      <c r="AQ362" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR362" s="42">
+        <v>141542.0</v>
+      </c>
+      <c r="AU362" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV362" s="42">
+        <v>2297.0</v>
+      </c>
+      <c r="AW362" s="35"/>
+      <c r="AX362" s="35"/>
+    </row>
+    <row r="363">
+      <c r="D363" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E363" s="42">
+        <v>0.00336</v>
+      </c>
+      <c r="G363" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H363" s="42">
+        <v>0.717</v>
+      </c>
+      <c r="J363" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K363" s="42">
+        <v>0.99984</v>
+      </c>
+      <c r="M363" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="N363" s="57">
+        <f>75.8*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="P363" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q363" s="42">
+        <v>0.2328</v>
+      </c>
+      <c r="S363" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="T363" s="57">
+        <f>1.8032*10^-7</f>
+        <v>0.00000018032</v>
+      </c>
+      <c r="Y363" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z363" s="57">
+        <f>1.7686*10^-6</f>
+        <v>0.0000017686</v>
+      </c>
+      <c r="AB363" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC363" s="57">
+        <f>2.962*10^-5</f>
+        <v>0.00002962</v>
+      </c>
+      <c r="AE363" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF363" s="57">
+        <f>3.6016*10^-6</f>
+        <v>0.0000036016</v>
+      </c>
+      <c r="AQ363" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR363" s="42">
+        <v>3842.0</v>
+      </c>
+      <c r="AU363" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV363" s="42">
+        <v>312.0</v>
+      </c>
+      <c r="AW363" s="53"/>
+      <c r="AX363" s="53"/>
+    </row>
+    <row r="364">
+      <c r="D364" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E364" s="39"/>
+      <c r="G364" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H364" s="43"/>
+      <c r="J364" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="K364" s="39"/>
+      <c r="M364" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="N364" s="57">
+        <f>37.18*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="P364" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q364" s="43"/>
+      <c r="AW364" s="53"/>
+      <c r="AX364" s="53"/>
+    </row>
+    <row r="365">
+      <c r="D365" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E365" s="42">
+        <v>0.067302</v>
+      </c>
+      <c r="G365" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H365" s="42">
+        <v>1246.08</v>
+      </c>
+      <c r="J365" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K365" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="M365" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="N365" s="58">
+        <f>4.16695*10^-9</f>
+        <v>0.00000000416695</v>
+      </c>
+      <c r="P365" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q365" s="42">
+        <v>648.99</v>
+      </c>
+      <c r="AQ365" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR365" s="43"/>
+      <c r="AU365" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV365" s="43"/>
+      <c r="AW365" s="35"/>
+      <c r="AX365" s="35"/>
+    </row>
+    <row r="366">
+      <c r="D366" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E366" s="42">
+        <v>40.961825</v>
+      </c>
+      <c r="G366" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H366" s="60">
+        <v>619.105</v>
+      </c>
+      <c r="J366" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="K366" s="42">
+        <v>44.955907</v>
+      </c>
+      <c r="P366" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q366" s="49">
+        <v>328.762</v>
+      </c>
+      <c r="AM366" s="59"/>
+      <c r="AQ366" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR366" s="42">
+        <v>7740.8</v>
+      </c>
+      <c r="AU366" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV366" s="42">
+        <v>1736.48</v>
+      </c>
+      <c r="AW366" s="35"/>
+      <c r="AX366" s="35"/>
+    </row>
+    <row r="367">
+      <c r="D367" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E367" s="58">
+        <f>0.98*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="G367" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H367" s="43"/>
+      <c r="J367" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K367" s="58">
+        <f>12.1*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="P367" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q367" s="42">
+        <v>31194.0</v>
+      </c>
+      <c r="AQ367" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR367" s="49">
+        <v>373.6</v>
+      </c>
+      <c r="AU367" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV367" s="49">
+        <v>857.44</v>
+      </c>
+      <c r="AW367" s="35"/>
+      <c r="AX367" s="35"/>
+    </row>
+    <row r="368">
+      <c r="D368" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E368" s="58">
+        <f>1.46*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="G368" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H368" s="43"/>
+      <c r="J368" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K368" s="58">
+        <f>27.2*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="P368" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q368" s="42">
+        <v>903.0</v>
+      </c>
+      <c r="AQ368" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR368" s="42">
+        <v>58844.0</v>
+      </c>
+      <c r="AU368" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV368" s="42">
+        <v>6697.0</v>
+      </c>
+      <c r="AW368" s="35"/>
+      <c r="AX368" s="35"/>
+    </row>
+    <row r="369">
+      <c r="D369" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E369" s="42">
+        <f>1.5584*10^-5</f>
+        <v>0.000015584</v>
+      </c>
+      <c r="G369" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H369" s="54"/>
+      <c r="J369" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K369" s="57">
+        <f>9.575*10^-8</f>
+        <v>0.00000009575</v>
+      </c>
+      <c r="P369" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q369" s="42">
+        <v>0.203</v>
+      </c>
+      <c r="AQ369" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR369" s="42">
+        <v>3497.0</v>
+      </c>
+      <c r="AU369" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV369" s="42">
+        <v>1248.0</v>
+      </c>
+      <c r="AW369" s="53"/>
+      <c r="AX369" s="53"/>
+    </row>
+    <row r="370">
+      <c r="G370" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H370" s="42">
+        <v>3493356.0</v>
+      </c>
+      <c r="P370" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q370" s="43"/>
+      <c r="AW370" s="53"/>
+      <c r="AX370" s="53"/>
+    </row>
+    <row r="371">
+      <c r="G371" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H371" s="42">
+        <v>2567.0</v>
+      </c>
+      <c r="P371" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q371" s="42">
+        <v>1875.8</v>
+      </c>
+      <c r="AQ371" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR371" s="43"/>
+      <c r="AU371" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV371" s="43"/>
+      <c r="AW371" s="35"/>
+      <c r="AX371" s="35"/>
+    </row>
+    <row r="372">
+      <c r="G372" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H372" s="42">
+        <v>0.437</v>
+      </c>
+      <c r="P372" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q372" s="49">
+        <v>925.189</v>
+      </c>
+      <c r="AQ372" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR372" s="42">
+        <v>993.56</v>
+      </c>
+      <c r="AT372" s="59"/>
+      <c r="AU372" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV372" s="42">
+        <v>1486.24</v>
+      </c>
+      <c r="AW372" s="35"/>
+      <c r="AX372" s="35"/>
+    </row>
+    <row r="373">
+      <c r="G373" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H373" s="43"/>
+      <c r="P373" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q373" s="42">
+        <v>5760.0</v>
+      </c>
+      <c r="AQ373" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR373" s="49">
+        <v>496.42</v>
+      </c>
+      <c r="AS373" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU373" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV373" s="49">
+        <v>735.84</v>
+      </c>
+      <c r="AW373" s="35"/>
+      <c r="AX373" s="35"/>
+    </row>
+    <row r="374">
+      <c r="G374" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H374" s="42">
+        <v>1409.11</v>
+      </c>
+      <c r="P374" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q374" s="42">
+        <v>1164.0</v>
+      </c>
+      <c r="AQ374" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR374" s="42">
+        <v>7397.0</v>
+      </c>
+      <c r="AU374" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV374" s="42">
+        <v>6079.0</v>
+      </c>
+      <c r="AW374" s="35"/>
+      <c r="AX374" s="35"/>
+    </row>
+    <row r="375">
+      <c r="G375" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H375" s="49">
+        <v>698.38</v>
+      </c>
+      <c r="P375" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q375" s="42">
+        <v>0.069</v>
+      </c>
+      <c r="AQ375" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR375" s="42">
+        <v>2702.0</v>
+      </c>
+      <c r="AU375" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV375" s="42">
+        <v>1578.0</v>
+      </c>
+      <c r="AW375" s="53"/>
+      <c r="AX375" s="53"/>
+    </row>
+    <row r="376">
+      <c r="G376" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H376" s="43"/>
+      <c r="P376" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q376" s="43"/>
+      <c r="AW376" s="53"/>
+      <c r="AX376" s="53"/>
+    </row>
+    <row r="377">
+      <c r="G377" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H377" s="43"/>
+      <c r="P377" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q377" s="42">
+        <v>1757.91</v>
+      </c>
+      <c r="AQ377" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR377" s="43"/>
+      <c r="AW377" s="46"/>
+      <c r="AX377" s="35"/>
+    </row>
+    <row r="378">
+      <c r="G378" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H378" s="54"/>
+      <c r="P378" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q378" s="49">
+        <v>867.846</v>
+      </c>
+      <c r="AM378" s="59"/>
+      <c r="AQ378" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR378" s="42">
+        <v>1955.4</v>
+      </c>
+      <c r="AW378" s="46"/>
+      <c r="AX378" s="35"/>
+    </row>
+    <row r="379">
+      <c r="G379" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H379" s="42">
+        <v>2034263.0</v>
+      </c>
+      <c r="P379" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q379" s="42">
+        <v>7227.0</v>
+      </c>
+      <c r="AQ379" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR379" s="49">
+        <v>963.82</v>
+      </c>
+      <c r="AW379" s="46"/>
+      <c r="AX379" s="35"/>
+    </row>
+    <row r="380">
+      <c r="G380" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H380" s="42">
+        <v>2213.0</v>
+      </c>
+      <c r="P380" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q380" s="42">
+        <v>1234.0</v>
+      </c>
+      <c r="AQ380" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR380" s="42">
+        <v>3816.0</v>
+      </c>
+      <c r="AW380" s="46"/>
+      <c r="AX380" s="35"/>
+    </row>
+    <row r="381">
+      <c r="G381" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H381" s="42">
+        <v>0.284</v>
+      </c>
+      <c r="P381" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q381" s="42">
+        <v>0.055</v>
+      </c>
+      <c r="AQ381" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR381" s="42">
+        <v>664.0</v>
+      </c>
+      <c r="AX381" s="53"/>
+    </row>
+    <row r="382">
+      <c r="G382" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H382" s="43"/>
+      <c r="P382" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q382" s="43"/>
+      <c r="AX382" s="53"/>
+    </row>
+    <row r="383">
+      <c r="G383" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H383" s="42">
+        <v>2120.02</v>
+      </c>
+      <c r="P383" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q383" s="42">
+        <v>1518.61</v>
+      </c>
+      <c r="AX383" s="53"/>
+    </row>
+    <row r="384">
+      <c r="G384" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H384" s="49">
+        <v>1044.12</v>
+      </c>
+      <c r="P384" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q384" s="49">
+        <v>751.637</v>
+      </c>
+      <c r="AU384" s="46"/>
+      <c r="AV384" s="46"/>
+      <c r="AW384" s="46"/>
+      <c r="AX384" s="35"/>
+    </row>
+    <row r="385">
+      <c r="G385" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H385" s="43"/>
+      <c r="P385" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q385" s="42">
+        <v>4835.0</v>
+      </c>
+      <c r="AX385" s="53"/>
+    </row>
+    <row r="386">
+      <c r="G386" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H386" s="43"/>
+      <c r="P386" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q386" s="42">
+        <v>1572.0</v>
+      </c>
+      <c r="AX386" s="53"/>
+    </row>
+    <row r="387">
+      <c r="G387" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H387" s="54"/>
+      <c r="P387" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q387" s="42">
+        <v>0.0433</v>
+      </c>
+      <c r="AX387" s="53"/>
+    </row>
+    <row r="388">
+      <c r="G388" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H388" s="42">
+        <v>1406003.0</v>
+      </c>
+      <c r="P388" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q388" s="39"/>
+      <c r="AX388" s="53"/>
+    </row>
+    <row r="389">
+      <c r="G389" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H389" s="42">
+        <v>1680.0</v>
+      </c>
+      <c r="P389" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q389" s="42">
+        <v>0.9991119</v>
+      </c>
+      <c r="AX389" s="53"/>
+    </row>
+    <row r="390">
+      <c r="G390" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H390" s="42">
+        <v>0.276</v>
+      </c>
+      <c r="P390" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q390" s="42">
+        <v>138.906363</v>
+      </c>
+      <c r="AM390" s="59"/>
+      <c r="AU390" s="46"/>
+      <c r="AV390" s="46"/>
+      <c r="AW390" s="46"/>
+      <c r="AX390" s="35"/>
+    </row>
+    <row r="391">
+      <c r="G391" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H391" s="43"/>
+      <c r="P391" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q391" s="57">
+        <f>12.1*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AQ391" s="46"/>
+      <c r="AR391" s="46"/>
+      <c r="AX391" s="53"/>
+    </row>
+    <row r="392">
+      <c r="G392" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H392" s="42">
+        <v>2682.55</v>
+      </c>
+      <c r="P392" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q392" s="57">
+        <f>9.21*10^-24</f>
+        <v>0</v>
+      </c>
+      <c r="AX392" s="53"/>
+    </row>
+    <row r="393">
+      <c r="G393" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H393" s="49">
+        <v>1317.88</v>
+      </c>
+      <c r="P393" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q393" s="57">
+        <f>4.7794*10^-6</f>
+        <v>0.0000047794</v>
+      </c>
+      <c r="AX393" s="53"/>
+    </row>
+    <row r="394">
+      <c r="G394" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H394" s="43"/>
+      <c r="AX394" s="53"/>
+    </row>
+    <row r="395">
+      <c r="G395" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H395" s="43"/>
+      <c r="AW395" s="46"/>
+      <c r="AX395" s="35"/>
+    </row>
+    <row r="396">
+      <c r="G396" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H396" s="54"/>
+      <c r="AW396" s="46"/>
+      <c r="AX396" s="35"/>
+    </row>
+    <row r="397">
+      <c r="G397" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H397" s="42">
+        <v>1114511.0</v>
+      </c>
+      <c r="AW397" s="46"/>
+      <c r="AX397" s="35"/>
+    </row>
+    <row r="398">
+      <c r="G398" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H398" s="42">
+        <v>1297.0</v>
+      </c>
+      <c r="AW398" s="46"/>
+      <c r="AX398" s="35"/>
+    </row>
+    <row r="399">
+      <c r="G399" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H399" s="42">
+        <v>0.269</v>
+      </c>
+      <c r="AX399" s="53"/>
+    </row>
+    <row r="400">
+      <c r="G400" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H400" s="43"/>
+      <c r="AX400" s="53"/>
+    </row>
+    <row r="401">
+      <c r="G401" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H401" s="42">
+        <v>1675.42</v>
+      </c>
+      <c r="AX401" s="53"/>
+    </row>
+    <row r="402">
+      <c r="G402" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H402" s="49">
+        <v>827.72</v>
+      </c>
+      <c r="AM402" s="59"/>
+      <c r="AU402" s="46"/>
+      <c r="AV402" s="46"/>
+      <c r="AW402" s="46"/>
+      <c r="AX402" s="35"/>
+    </row>
+    <row r="403">
+      <c r="G403" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H403" s="43"/>
+      <c r="AQ403" s="46"/>
+      <c r="AR403" s="46"/>
+      <c r="AX403" s="53"/>
+    </row>
+    <row r="404">
+      <c r="G404" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H404" s="43"/>
+      <c r="AX404" s="53"/>
+    </row>
+    <row r="405">
+      <c r="G405" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H405" s="54"/>
+      <c r="AX405" s="53"/>
+    </row>
+    <row r="406">
+      <c r="G406" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H406" s="42">
+        <v>1490103.0</v>
+      </c>
+      <c r="AX406" s="53"/>
+    </row>
+    <row r="407">
+      <c r="G407" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H407" s="42">
+        <v>1848.0</v>
+      </c>
+      <c r="AX407" s="53"/>
+    </row>
+    <row r="408">
+      <c r="G408" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H408" s="42">
+        <v>0.242</v>
+      </c>
+      <c r="AX408" s="53"/>
+    </row>
+    <row r="409">
+      <c r="G409" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H409" s="43"/>
+      <c r="AQ409" s="46"/>
+      <c r="AR409" s="46"/>
+      <c r="AS409" s="46"/>
+      <c r="AX409" s="53"/>
+    </row>
+    <row r="410">
+      <c r="G410" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H410" s="42">
+        <v>3006.29</v>
+      </c>
+      <c r="AX410" s="53"/>
+    </row>
+    <row r="411">
+      <c r="G411" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H411" s="49">
+        <v>1475.15</v>
+      </c>
+      <c r="AX411" s="53"/>
+    </row>
+    <row r="412">
+      <c r="G412" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H412" s="43"/>
+      <c r="AW412" s="53"/>
+      <c r="AX412" s="53"/>
+    </row>
+    <row r="413">
+      <c r="G413" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H413" s="43"/>
+      <c r="AW413" s="53"/>
+      <c r="AX413" s="53"/>
+    </row>
+    <row r="414">
+      <c r="G414" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H414" s="54"/>
+      <c r="AW414" s="53"/>
+      <c r="AX414" s="53"/>
+    </row>
+    <row r="415">
+      <c r="G415" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H415" s="42">
+        <v>615883.0</v>
+      </c>
+      <c r="AW415" s="53"/>
+      <c r="AX415" s="53"/>
+    </row>
+    <row r="416">
+      <c r="G416" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H416" s="42">
+        <v>944.0</v>
+      </c>
+      <c r="AW416" s="53"/>
+      <c r="AX416" s="53"/>
+    </row>
+    <row r="417">
+      <c r="G417" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H417" s="42">
+        <v>0.1639</v>
+      </c>
+      <c r="AW417" s="53"/>
+      <c r="AX417" s="53"/>
+    </row>
+    <row r="418">
+      <c r="G418" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H418" s="39"/>
+      <c r="AW418" s="53"/>
+      <c r="AX418" s="53"/>
+    </row>
+    <row r="419">
+      <c r="G419" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H419" s="42">
+        <v>0.4935</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="G420" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H420" s="42">
+        <v>80.916288</v>
+      </c>
+      <c r="AM420" s="59"/>
+    </row>
+    <row r="421">
+      <c r="G421" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H421" s="58">
+        <f>46*10^-24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="G422" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H422" s="58">
+        <f>2.36*10^-24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="G423" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H423" s="43">
+        <f>5.4572*10^-6</f>
+        <v>0.0000054572</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="AH345:AI345"/>
+    <mergeCell ref="AH352:AI352"/>
+    <mergeCell ref="AK352:AL352"/>
+    <mergeCell ref="AN352:AO352"/>
+    <mergeCell ref="V353:W353"/>
+    <mergeCell ref="V345:W345"/>
+    <mergeCell ref="Y345:Z345"/>
+    <mergeCell ref="AB345:AC345"/>
+    <mergeCell ref="AE345:AF345"/>
+    <mergeCell ref="AK345:AL345"/>
+    <mergeCell ref="AN345:AO345"/>
+    <mergeCell ref="AQ345:AV345"/>
+    <mergeCell ref="S345:T345"/>
+    <mergeCell ref="S358:T358"/>
+    <mergeCell ref="Y358:Z358"/>
+    <mergeCell ref="AB358:AC358"/>
+    <mergeCell ref="AE358:AF358"/>
+    <mergeCell ref="D345:E345"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="G418:H418"/>
+    <mergeCell ref="P345:Q345"/>
+    <mergeCell ref="P388:Q388"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="G345:H345"/>
+    <mergeCell ref="J345:K345"/>
+    <mergeCell ref="M345:N345"/>
+    <mergeCell ref="A355:B355"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="J364:K364"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>